--- a/Weather_for_Penman/99_Crop_data/Crop_coefficient.xlsx
+++ b/Weather_for_Penman/99_Crop_data/Crop_coefficient.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DK/Documents/GitHub/SoilMoisture_analysis/Weather_for_Penman/99_Crop_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C701054-70DC-FC48-AD9B-5C0F23508730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38FEFB3-C5C7-CD4F-A4BC-E4DC1E2108A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="5060" windowWidth="26840" windowHeight="15940" xr2:uid="{0FF0E4A0-0285-4A48-BAC5-F5FC044784CF}"/>
+    <workbookView xWindow="4440" yWindow="5060" windowWidth="26840" windowHeight="15940" activeTab="1" xr2:uid="{0FF0E4A0-0285-4A48-BAC5-F5FC044784CF}"/>
   </bookViews>
   <sheets>
     <sheet name="corn" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -172,6 +172,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -508,147 +511,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4DC2F6-4433-A74C-9CA7-5FAAB1236F87}">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>9</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>10</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>11</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>12</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>13</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>14</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1">
         <v>15</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="1">
         <v>16</v>
       </c>
-      <c r="R1" s="3">
+      <c r="S1" s="3">
         <v>17</v>
       </c>
-      <c r="S1" s="4">
+      <c r="T1" s="4">
         <v>18</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="1">
         <v>19</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="1">
         <v>20</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="W1" s="3">
+      <c r="X1" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
         <v>0.32666666666666666</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.41000000000000003</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.50666666666666671</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.62333333333333341</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.74333333333333329</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.86555555555555552</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.93888888888888899</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1.0111111111111111</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1.0177777777777777</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1.0066666666666666</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.98444444444444434</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>0.94555555555555559</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.87666666666666715</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.78777777777777813</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.65000000000000036</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>0.50000000000000044</v>
       </c>
-      <c r="S2">
-        <v>0.1</v>
-      </c>
-      <c r="T2" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="U2">
+      <c r="T2">
+        <v>0.1</v>
+      </c>
+      <c r="U2" s="6">
         <v>0.1</v>
       </c>
       <c r="V2">
@@ -657,359 +663,377 @@
       <c r="W2">
         <v>0.1</v>
       </c>
+      <c r="X2">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>50</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>0.2</v>
       </c>
       <c r="C3">
         <v>0.2</v>
       </c>
       <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3">
         <v>0.25571428571428573</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.3914285714285714</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.5714285714285714</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.78571428571428581</v>
       </c>
-      <c r="H3">
-        <v>0.95</v>
-      </c>
       <c r="I3">
+        <v>0.95</v>
+      </c>
+      <c r="J3">
         <v>0.95416666666666661</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.95833333333333326</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.95579999999999998</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.94929999999999992</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.94229999999999992</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.9204</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.88949999999999996</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.8</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.7</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.6</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.5</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.4</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.30799999999999994</v>
       </c>
-      <c r="V3">
-        <v>0.2</v>
-      </c>
       <c r="W3">
         <v>0.2</v>
       </c>
+      <c r="X3">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>60</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>0.2</v>
       </c>
       <c r="C4">
         <v>0.2</v>
       </c>
       <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4">
         <v>0.25571428571428573</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.3914285714285714</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.5714285714285714</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.78571428571428581</v>
       </c>
-      <c r="H4">
-        <v>0.95</v>
-      </c>
       <c r="I4">
+        <v>0.95</v>
+      </c>
+      <c r="J4">
         <v>0.95416666666666661</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.95833333333333326</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.95579999999999998</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.94929999999999992</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.94229999999999992</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>0.9204</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.88949999999999996</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.8</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.7</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.6</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0.5</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>0.4</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>0.30799999999999994</v>
       </c>
-      <c r="V4">
-        <v>0.2</v>
-      </c>
       <c r="W4">
         <v>0.2</v>
       </c>
+      <c r="X4">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>70</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="8">
         <v>0.2</v>
       </c>
       <c r="C5">
         <v>0.2</v>
       </c>
       <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5">
         <v>0.25571428571428573</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.3914285714285714</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.5714285714285714</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.78571428571428581</v>
       </c>
-      <c r="H5">
-        <v>0.95</v>
-      </c>
       <c r="I5">
+        <v>0.95</v>
+      </c>
+      <c r="J5">
         <v>0.95416666666666661</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.95833333333333326</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.95579999999999998</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.94929999999999992</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.94229999999999992</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.9204</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.88949999999999996</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.8</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.7</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.6</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.5</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0.4</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>0.30799999999999994</v>
       </c>
-      <c r="V5">
-        <v>0.2</v>
-      </c>
       <c r="W5">
         <v>0.2</v>
       </c>
+      <c r="X5">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>80</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>0.2</v>
       </c>
       <c r="C6">
         <v>0.2</v>
       </c>
       <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="E6">
         <v>0.25571428571428573</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.3914285714285714</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.5714285714285714</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.78571428571428581</v>
       </c>
-      <c r="H6">
-        <v>0.95</v>
-      </c>
       <c r="I6">
+        <v>0.95</v>
+      </c>
+      <c r="J6">
         <v>0.95416666666666661</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.95833333333333326</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.95579999999999998</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.94929999999999992</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.94229999999999992</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0.9204</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.88949999999999996</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.8</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.7</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.6</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0.5</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0.4</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>0.30799999999999994</v>
       </c>
-      <c r="V6">
-        <v>0.2</v>
-      </c>
       <c r="W6">
         <v>0.2</v>
       </c>
+      <c r="X6">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>90</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>0.2</v>
       </c>
       <c r="C7">
         <v>0.2</v>
       </c>
       <c r="D7">
+        <v>0.2</v>
+      </c>
+      <c r="E7">
         <v>0.25571428571428573</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.3914285714285714</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.5714285714285714</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.78571428571428581</v>
       </c>
-      <c r="H7">
-        <v>0.95</v>
-      </c>
       <c r="I7">
+        <v>0.95</v>
+      </c>
+      <c r="J7">
         <v>0.95416666666666661</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.95833333333333326</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.95579999999999998</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.94929999999999992</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.94229999999999992</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.9204</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.88949999999999996</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0.8</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>0.7</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0.6</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>0.5</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>0.4</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>0.30799999999999994</v>
       </c>
-      <c r="V7">
-        <v>0.2</v>
-      </c>
       <c r="W7">
+        <v>0.2</v>
+      </c>
+      <c r="X7">
         <v>0.2</v>
       </c>
     </row>
@@ -1021,138 +1045,143 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73E4E07-BED1-8F43-8E75-B63EFD5F8001}">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>9</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>10</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>11</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>12</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>13</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>14</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1">
         <v>15</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="R1" s="3">
         <v>16</v>
       </c>
-      <c r="R1" s="4">
+      <c r="S1" s="4">
         <v>17</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="1">
         <v>19</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="1">
         <v>20</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="W1" s="3">
+      <c r="X1" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <v>0.2</v>
       </c>
       <c r="C2">
+        <v>0.2</v>
+      </c>
+      <c r="D2">
         <v>0.23</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.32749999999999996</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.45</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.57750000000000001</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.73</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.875</v>
       </c>
-      <c r="I2">
-        <v>0.95</v>
-      </c>
       <c r="J2">
         <v>0.95</v>
       </c>
       <c r="K2">
+        <v>0.95</v>
+      </c>
+      <c r="L2">
         <v>0.92899999999999994</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.88390000000000002</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.72289999999999988</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>0.50340000000000029</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.29219999999999996</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.16619999999999982</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.11849999999999997</v>
       </c>
-      <c r="R2">
-        <v>0.1</v>
-      </c>
       <c r="S2">
         <v>0.1</v>
       </c>
@@ -1168,62 +1197,65 @@
       <c r="W2">
         <v>0.1</v>
       </c>
+      <c r="X2">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>50</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>0.2</v>
       </c>
       <c r="C3">
+        <v>0.2</v>
+      </c>
+      <c r="D3">
         <v>0.23</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.32749999999999996</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.45</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.57750000000000001</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.73</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.875</v>
       </c>
-      <c r="I3">
-        <v>0.95</v>
-      </c>
       <c r="J3">
         <v>0.95</v>
       </c>
       <c r="K3">
+        <v>0.95</v>
+      </c>
+      <c r="L3">
         <v>0.92899999999999994</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.88390000000000002</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.72289999999999988</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.50340000000000029</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.29219999999999996</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.16619999999999982</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.11849999999999997</v>
       </c>
-      <c r="R3">
-        <v>0.1</v>
-      </c>
       <c r="S3">
         <v>0.1</v>
       </c>
@@ -1239,62 +1271,65 @@
       <c r="W3">
         <v>0.1</v>
       </c>
+      <c r="X3">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>60</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>0.2</v>
       </c>
       <c r="C4">
+        <v>0.2</v>
+      </c>
+      <c r="D4">
         <v>0.23</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.32749999999999996</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.45</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.57750000000000001</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.73</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.875</v>
       </c>
-      <c r="I4">
-        <v>0.95</v>
-      </c>
       <c r="J4">
         <v>0.95</v>
       </c>
       <c r="K4">
+        <v>0.95</v>
+      </c>
+      <c r="L4">
         <v>0.92899999999999994</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.88390000000000002</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.72289999999999988</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>0.50340000000000029</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.29219999999999996</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.16619999999999982</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.11849999999999997</v>
       </c>
-      <c r="R4">
-        <v>0.1</v>
-      </c>
       <c r="S4">
         <v>0.1</v>
       </c>
@@ -1310,62 +1345,65 @@
       <c r="W4">
         <v>0.1</v>
       </c>
+      <c r="X4">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>70</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="8">
         <v>0.2</v>
       </c>
       <c r="C5">
+        <v>0.2</v>
+      </c>
+      <c r="D5">
         <v>0.23</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.32749999999999996</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.45</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.57750000000000001</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.73</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.875</v>
       </c>
-      <c r="I5">
-        <v>0.95</v>
-      </c>
       <c r="J5">
         <v>0.95</v>
       </c>
       <c r="K5">
+        <v>0.95</v>
+      </c>
+      <c r="L5">
         <v>0.92899999999999994</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.88390000000000002</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.72289999999999988</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.50340000000000029</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.29219999999999996</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.16619999999999982</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.11849999999999997</v>
       </c>
-      <c r="R5">
-        <v>0.1</v>
-      </c>
       <c r="S5">
         <v>0.1</v>
       </c>
@@ -1381,62 +1419,65 @@
       <c r="W5">
         <v>0.1</v>
       </c>
+      <c r="X5">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>80</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>0.2</v>
       </c>
       <c r="C6">
+        <v>0.2</v>
+      </c>
+      <c r="D6">
         <v>0.23</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.32749999999999996</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.45</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.57750000000000001</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.73</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.875</v>
       </c>
-      <c r="I6">
-        <v>0.95</v>
-      </c>
       <c r="J6">
         <v>0.95</v>
       </c>
       <c r="K6">
+        <v>0.95</v>
+      </c>
+      <c r="L6">
         <v>0.92899999999999994</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.88390000000000002</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.72289999999999988</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0.50340000000000029</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.29219999999999996</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.16619999999999982</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.11849999999999997</v>
       </c>
-      <c r="R6">
-        <v>0.1</v>
-      </c>
       <c r="S6">
         <v>0.1</v>
       </c>
@@ -1452,62 +1493,65 @@
       <c r="W6">
         <v>0.1</v>
       </c>
+      <c r="X6">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>90</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>0.2</v>
       </c>
       <c r="C7">
+        <v>0.2</v>
+      </c>
+      <c r="D7">
         <v>0.23</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.32749999999999996</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.45</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.57750000000000001</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.73</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.875</v>
       </c>
-      <c r="I7">
-        <v>0.95</v>
-      </c>
       <c r="J7">
         <v>0.95</v>
       </c>
       <c r="K7">
+        <v>0.95</v>
+      </c>
+      <c r="L7">
         <v>0.92899999999999994</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.88390000000000002</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.72289999999999988</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.50340000000000029</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.29219999999999996</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0.16619999999999982</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>0.11849999999999997</v>
       </c>
-      <c r="R7">
-        <v>0.1</v>
-      </c>
       <c r="S7">
         <v>0.1</v>
       </c>
@@ -1521,6 +1565,9 @@
         <v>0.1</v>
       </c>
       <c r="W7">
+        <v>0.1</v>
+      </c>
+      <c r="X7">
         <v>0.1</v>
       </c>
     </row>
